--- a/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250314.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Performance Food/Performance Food_Triphammer_20250314.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,1059 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>JP006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6 oz Chicken Breast</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FK824</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anchovies</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>57.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>230.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16430</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Balsamic Vinaigrette</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LG162</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Base - Beef (No MSG)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>J3088</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Base - Chicken (No MSG)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>125.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>70454</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Base - Chipotle</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LF010</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Base - Vegetable</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>K1570</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>81692</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Can - Garbanzo Beans</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>22096</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Can - Tomato - Whole Peeled</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Capers</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>VR126</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cheddar - Extra Sharp White</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>57.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>457.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>V2346</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chicken Wing - Fully Cooked</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>141.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>141.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A0280</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Edamame - FRZ Shelled</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A0184</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Garlic Spread</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>46.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ham (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>315.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CF132</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Heavy Cream</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>58.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>58.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>177.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>53.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>159.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>36776</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Prosciutto</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>60.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NH016</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Provolone (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>197.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>83632</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Roast Beef (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>111.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>335.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>17486</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Salmon Filet Skinless</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>109.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>328.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TB586</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Salt - Kosher Coarse</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B2530</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sausage - Italian Sweet</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>50778</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sausage - Patty (1.5oz)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>279.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CR064</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Shrimp Peeled Tail Off (21/25)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>61.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>123.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FA300</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sundried Tomatoes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>113.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DT820</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1082.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>F6472</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vinegar - Balsamic</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NG746</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Wrap - Garlic Herb (12')</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>78922</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Grape - Fresh Seedless (Red)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NH166</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lettuce - Arcadian Blend</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mushroom Portobello - 4" Cap</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>H5846</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Carrots - Shredded Fresh</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
